--- a/okannako/evidence.xlsx
+++ b/okannako/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\İndirilenler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameOfNfts\Nako\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4DEE44-40B0-4F1C-945B-6D89589B24AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B55C5-044B-4F6D-A88C-B762C8AFEBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25017" yWindow="-118" windowWidth="19086" windowHeight="11402" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,6 +125,48 @@
   </si>
   <si>
     <t>uptick1ps0z26dn4ryr4c93zulkdhq3st2w6kt3sp7yn5</t>
+  </si>
+  <si>
+    <t>97EA74F8E565B2BE9ED5D9C484E0625EB1EB1154CDFDB73069712E79CA339E53</t>
+  </si>
+  <si>
+    <t>nakonft</t>
+  </si>
+  <si>
+    <t>F73EEED38A9CB4B9629EDDC824FAF83337A467D0D93CE8374D0A0BAF1460C3C4</t>
+  </si>
+  <si>
+    <t>nakonft1</t>
+  </si>
+  <si>
+    <t>nakonft2</t>
+  </si>
+  <si>
+    <t>BCACFC8BF80F48E85917CEC32F0D686C0AA1F13321087ACAB09E0401AB73BB65</t>
+  </si>
+  <si>
+    <t>76F2700F0D3FBAA66CAFD35FCAE2DF9FC818B52BF3CC25B4DADD87781B0E75B4</t>
+  </si>
+  <si>
+    <t>juno1sjpq7e932wk3ma5ru0sfg9zg5pmgyapnlyz7hpyzwfp926glk4jqnwgmk4</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>8861B42C2FE972EA5D046487E06A698F9813A8498ED4811C44C7C3E6CB449100</t>
+  </si>
+  <si>
+    <t>ibc/F21144A46111F8D28F6CD8BDFBD0EC54841C1B8E5B72A455CD29B9E71D21DD22</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>485A51B78417CBC136BE828951BDB38D49189179B40256D42E081D0F24B007A9</t>
+  </si>
+  <si>
+    <t>5443B77092FC924F5C8A9D65B3A47A5E4C3E0AD919378E9C9BD06847F131BDE7</t>
   </si>
 </sst>
 </file>
@@ -537,69 +561,69 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
-    <col min="7" max="8" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
+    <col min="7" max="8" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -616,13 +640,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -630,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -652,13 +676,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -688,13 +712,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -702,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -724,13 +748,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -760,13 +784,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -782,12 +806,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -806,13 +830,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -828,12 +852,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -852,13 +876,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -874,12 +898,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -898,13 +922,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -920,12 +944,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -944,13 +968,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -966,12 +990,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -990,13 +1014,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1012,12 +1036,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1034,14 +1058,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,12 +1076,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1071,13 +1098,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1093,12 +1120,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1117,13 +1144,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1139,12 +1166,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1163,22 +1190,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1197,22 +1224,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1231,22 +1258,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1265,22 +1292,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1295,17 +1322,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,15 +1345,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1339,16 +1379,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1362,18 +1404,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1388,16 +1430,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,18 +1455,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1437,16 +1481,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,18 +1506,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1486,17 +1532,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,18 +1558,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1538,13 +1586,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1574,13 +1622,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/okannako/evidence.xlsx
+++ b/okannako/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameOfNfts\Nako\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B55C5-044B-4F6D-A88C-B762C8AFEBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED6F032-1144-4162-88EF-BF420688E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25017" yWindow="-118" windowWidth="19086" windowHeight="11402" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25017" yWindow="-118" windowWidth="19086" windowHeight="11402" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -139,12 +139,6 @@
     <t>nakonft1</t>
   </si>
   <si>
-    <t>nakonft2</t>
-  </si>
-  <si>
-    <t>BCACFC8BF80F48E85917CEC32F0D686C0AA1F13321087ACAB09E0401AB73BB65</t>
-  </si>
-  <si>
     <t>76F2700F0D3FBAA66CAFD35FCAE2DF9FC818B52BF3CC25B4DADD87781B0E75B4</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>uni-6</t>
   </si>
   <si>
-    <t>8861B42C2FE972EA5D046487E06A698F9813A8498ED4811C44C7C3E6CB449100</t>
-  </si>
-  <si>
     <t>ibc/F21144A46111F8D28F6CD8BDFBD0EC54841C1B8E5B72A455CD29B9E71D21DD22</t>
   </si>
   <si>
@@ -166,7 +157,16 @@
     <t>485A51B78417CBC136BE828951BDB38D49189179B40256D42E081D0F24B007A9</t>
   </si>
   <si>
-    <t>5443B77092FC924F5C8A9D65B3A47A5E4C3E0AD919378E9C9BD06847F131BDE7</t>
+    <t>CEB7832512465A6B519D4030FA224619FAABDD2942646A4DC41127DC79E6C0FC</t>
+  </si>
+  <si>
+    <t>nakonft22</t>
+  </si>
+  <si>
+    <t>AE4D75BF70CE13D48E4B05B692A198AD5560CE09268020379E15C0D043F65EEB</t>
+  </si>
+  <si>
+    <t>2B14D7B26F7442B72817EBDACC38834FC1F282D1F6CDFF53F154A81D85C2175D</t>
   </si>
 </sst>
 </file>
@@ -1358,13 +1358,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1406,16 +1406,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1425,6 +1425,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1460,64 +1511,13 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1532,8 +1532,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1563,13 +1563,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
